--- a/data/pca/factorExposure/factorExposure_2009-04-27.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-04-27.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.01732521542790195</v>
+        <v>0.01668916750668107</v>
       </c>
       <c r="C2">
-        <v>-0.002045103063766844</v>
+        <v>-0.001288083339537394</v>
       </c>
       <c r="D2">
-        <v>0.007561979836650152</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.008757371328557841</v>
+      </c>
+      <c r="E2">
+        <v>-0.0004044050938215431</v>
+      </c>
+      <c r="F2">
+        <v>-0.02004144090858665</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +751,316 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.08741270060333751</v>
+        <v>0.090395604503952</v>
       </c>
       <c r="C4">
-        <v>-0.02055174326994691</v>
+        <v>-0.01578646246733557</v>
       </c>
       <c r="D4">
-        <v>0.08039534531934633</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.0840278627544146</v>
+      </c>
+      <c r="E4">
+        <v>-0.03208103120601081</v>
+      </c>
+      <c r="F4">
+        <v>0.03662091269144299</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.0002934760377203429</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>9.23632731900282e-05</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>-2.034039830004864e-05</v>
+      </c>
+      <c r="E5">
+        <v>-3.008172186937252e-05</v>
+      </c>
+      <c r="F5">
+        <v>0.0003099708373976951</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1571290543039386</v>
+        <v>0.1646494254011699</v>
       </c>
       <c r="C6">
-        <v>-0.03470128747076732</v>
+        <v>-0.03306499478048462</v>
       </c>
       <c r="D6">
-        <v>-0.02951412000404065</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02037690060050664</v>
+      </c>
+      <c r="E6">
+        <v>-0.01613751968897169</v>
+      </c>
+      <c r="F6">
+        <v>0.05692697835894454</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.05762445462468708</v>
+        <v>0.0610242595288378</v>
       </c>
       <c r="C7">
-        <v>-0.002149665956342041</v>
+        <v>0.001150237577806734</v>
       </c>
       <c r="D7">
-        <v>0.0473835883715782</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05259015209881204</v>
+      </c>
+      <c r="E7">
+        <v>-0.01945075595078754</v>
+      </c>
+      <c r="F7">
+        <v>0.04422047449745326</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.05851864668449577</v>
+        <v>0.05487075292315925</v>
       </c>
       <c r="C8">
-        <v>0.009673993890847533</v>
+        <v>0.01195732207524221</v>
       </c>
       <c r="D8">
-        <v>0.02494395427680874</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03002422006012204</v>
+      </c>
+      <c r="E8">
+        <v>-0.01332907882770831</v>
+      </c>
+      <c r="F8">
+        <v>-0.03619391485592351</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.06845019624719018</v>
+        <v>0.07061232842866541</v>
       </c>
       <c r="C9">
-        <v>-0.01639610691127768</v>
+        <v>-0.01131897753460255</v>
       </c>
       <c r="D9">
-        <v>0.0840899358367153</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08805058552733049</v>
+      </c>
+      <c r="E9">
+        <v>-0.030394989411995</v>
+      </c>
+      <c r="F9">
+        <v>0.05586545659113752</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.08855816157355989</v>
+        <v>0.08812162236714026</v>
       </c>
       <c r="C10">
-        <v>-0.0200933124610999</v>
+        <v>-0.02382910458831363</v>
       </c>
       <c r="D10">
-        <v>-0.1681258520622396</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.158472648003313</v>
+      </c>
+      <c r="E10">
+        <v>0.03702082889470588</v>
+      </c>
+      <c r="F10">
+        <v>-0.07581157298189817</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.08871161566475552</v>
+        <v>0.08573718706530908</v>
       </c>
       <c r="C11">
-        <v>-0.01773934364325624</v>
+        <v>-0.01226072806677871</v>
       </c>
       <c r="D11">
-        <v>0.1156579862263691</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1203942356166078</v>
+      </c>
+      <c r="E11">
+        <v>-0.0558020348000545</v>
+      </c>
+      <c r="F11">
+        <v>0.004157561566891911</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.09537732045760558</v>
+        <v>0.09003255965977591</v>
       </c>
       <c r="C12">
-        <v>-0.01639661848691149</v>
+        <v>-0.01006800601930674</v>
       </c>
       <c r="D12">
-        <v>0.1227444673927035</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1361177928021007</v>
+      </c>
+      <c r="E12">
+        <v>-0.05950342523121088</v>
+      </c>
+      <c r="F12">
+        <v>0.009496311965928537</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.04463966535924652</v>
+        <v>0.04488086884694367</v>
       </c>
       <c r="C13">
-        <v>-0.00722929468223492</v>
+        <v>-0.003933095598550437</v>
       </c>
       <c r="D13">
-        <v>0.04965926552438645</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05605281992225812</v>
+      </c>
+      <c r="E13">
+        <v>0.0004191518132127778</v>
+      </c>
+      <c r="F13">
+        <v>0.00592763639978983</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.01779545637870267</v>
+        <v>0.02146540912632733</v>
       </c>
       <c r="C14">
-        <v>-0.01475340961607715</v>
+        <v>-0.01359485577870322</v>
       </c>
       <c r="D14">
-        <v>0.03276037121114255</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03349283983360805</v>
+      </c>
+      <c r="E14">
+        <v>-0.02239576633038049</v>
+      </c>
+      <c r="F14">
+        <v>0.01111896579918639</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.03440215976611501</v>
+        <v>0.0347249925525288</v>
       </c>
       <c r="C15">
-        <v>-0.008264850296815462</v>
+        <v>-0.006374097177763908</v>
       </c>
       <c r="D15">
-        <v>0.04881713042400716</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04847694479686061</v>
+      </c>
+      <c r="E15">
+        <v>-0.01166705378092666</v>
+      </c>
+      <c r="F15">
+        <v>0.02705121409294799</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.07161193775562621</v>
+        <v>0.06973035368394337</v>
       </c>
       <c r="C16">
-        <v>-0.007257988508592274</v>
+        <v>-0.001644220123599872</v>
       </c>
       <c r="D16">
-        <v>0.1186832947313481</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1306922291011155</v>
+      </c>
+      <c r="E16">
+        <v>-0.07016243073651918</v>
+      </c>
+      <c r="F16">
+        <v>0.006143294662653179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.001943249706242572</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.0007881267736831407</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.001843571104410643</v>
+      </c>
+      <c r="E17">
+        <v>-0.004743187342639753</v>
+      </c>
+      <c r="F17">
+        <v>-0.003750018944023741</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0.02729541190213148</v>
+        <v>0.04519305351444983</v>
       </c>
       <c r="C18">
-        <v>0.0008347589737038588</v>
+        <v>0.0006361102622732725</v>
       </c>
       <c r="D18">
-        <v>0.02262524165861091</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01863735131561755</v>
+      </c>
+      <c r="E18">
+        <v>0.005440613731321814</v>
+      </c>
+      <c r="F18">
+        <v>-0.01325326766365269</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.06277536968697413</v>
+        <v>0.06184740319127408</v>
       </c>
       <c r="C20">
-        <v>-0.005881820282338603</v>
+        <v>-0.002071079933177506</v>
       </c>
       <c r="D20">
-        <v>0.07523473898997275</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07923286991351743</v>
+      </c>
+      <c r="E20">
+        <v>-0.06490868613997712</v>
+      </c>
+      <c r="F20">
+        <v>0.02720363895677263</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.04048984668119408</v>
+        <v>0.04249143899769552</v>
       </c>
       <c r="C21">
-        <v>-0.01025673924609566</v>
+        <v>-0.007709644913273735</v>
       </c>
       <c r="D21">
-        <v>0.0370431497666994</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03722240213801058</v>
+      </c>
+      <c r="E21">
+        <v>-0.0006846120080009505</v>
+      </c>
+      <c r="F21">
+        <v>-0.02690550817497655</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.04296452156783519</v>
+        <v>0.0441056425576211</v>
       </c>
       <c r="C22">
-        <v>-0.002568925043875326</v>
+        <v>-0.001829945164685088</v>
       </c>
       <c r="D22">
-        <v>0.003038204709769914</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.009726769636331727</v>
+      </c>
+      <c r="E22">
+        <v>-0.02941485416729163</v>
+      </c>
+      <c r="F22">
+        <v>-0.08583573791196773</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.04297302201500444</v>
+        <v>0.04411290070782383</v>
       </c>
       <c r="C23">
-        <v>-0.002571064067781983</v>
+        <v>-0.001832045760121559</v>
       </c>
       <c r="D23">
-        <v>0.003029202543936178</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.009719993073723858</v>
+      </c>
+      <c r="E23">
+        <v>-0.0294226819824644</v>
+      </c>
+      <c r="F23">
+        <v>-0.08587628061769761</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.07919744565163878</v>
+        <v>0.07607149177631703</v>
       </c>
       <c r="C24">
-        <v>-0.008182068069565281</v>
+        <v>-0.002653051578235956</v>
       </c>
       <c r="D24">
-        <v>0.1199318869001695</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1243922793405288</v>
+      </c>
+      <c r="E24">
+        <v>-0.05444976099139064</v>
+      </c>
+      <c r="F24">
+        <v>0.01832992911412064</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.08383559899128754</v>
+        <v>0.08068579033736047</v>
       </c>
       <c r="C25">
-        <v>-0.01051731107857852</v>
+        <v>-0.005511456076079221</v>
       </c>
       <c r="D25">
-        <v>0.107307975862301</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1120565888380846</v>
+      </c>
+      <c r="E25">
+        <v>-0.04046316346243213</v>
+      </c>
+      <c r="F25">
+        <v>0.01213776001435778</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.05720795564768543</v>
+        <v>0.06135888714358585</v>
       </c>
       <c r="C26">
-        <v>-0.01883348122264853</v>
+        <v>-0.01569638919596933</v>
       </c>
       <c r="D26">
-        <v>0.04053550427404947</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.0490800983440799</v>
+      </c>
+      <c r="E26">
+        <v>-0.02865486484571073</v>
+      </c>
+      <c r="F26">
+        <v>-0.02005320646098431</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.1414841668907549</v>
+        <v>0.1484717343740567</v>
       </c>
       <c r="C28">
-        <v>-0.02163870621690624</v>
+        <v>-0.0281944812892254</v>
       </c>
       <c r="D28">
-        <v>-0.2595663935965985</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2547631902828611</v>
+      </c>
+      <c r="E28">
+        <v>0.06185872182233631</v>
+      </c>
+      <c r="F28">
+        <v>0.00610903002585986</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.0250458273271465</v>
+        <v>0.02755469869376093</v>
       </c>
       <c r="C29">
-        <v>-0.009708274098258082</v>
+        <v>-0.009012970210226281</v>
       </c>
       <c r="D29">
-        <v>0.03124685613323254</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03092245723904162</v>
+      </c>
+      <c r="E29">
+        <v>-0.01677430028801463</v>
+      </c>
+      <c r="F29">
+        <v>-0.02698509105469174</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.05578197203793641</v>
+        <v>0.05336079538472798</v>
       </c>
       <c r="C30">
-        <v>-0.007649369589918937</v>
+        <v>-0.002726784621784264</v>
       </c>
       <c r="D30">
-        <v>0.08013076890552298</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08817583348227884</v>
+      </c>
+      <c r="E30">
+        <v>-0.02215123746571478</v>
+      </c>
+      <c r="F30">
+        <v>0.09994135634947912</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.05114168565508116</v>
+        <v>0.05153201855061188</v>
       </c>
       <c r="C31">
-        <v>-0.01858605433001317</v>
+        <v>-0.01691529705206438</v>
       </c>
       <c r="D31">
-        <v>0.02411281506577961</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02665007048983195</v>
+      </c>
+      <c r="E31">
+        <v>-0.02933525981317466</v>
+      </c>
+      <c r="F31">
+        <v>-0.0120566521824218</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.04548742215759995</v>
+        <v>0.05026913743459779</v>
       </c>
       <c r="C32">
-        <v>-0.002273150025575316</v>
+        <v>0.001149737341436206</v>
       </c>
       <c r="D32">
-        <v>0.03177219281134416</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03573224881995802</v>
+      </c>
+      <c r="E32">
+        <v>-0.03161423570510692</v>
+      </c>
+      <c r="F32">
+        <v>-0.002211392534469414</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.08921490035950004</v>
+        <v>0.09005280489760902</v>
       </c>
       <c r="C33">
-        <v>-0.01436780232862026</v>
+        <v>-0.008522504177734801</v>
       </c>
       <c r="D33">
-        <v>0.09316885767491098</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1064134852799072</v>
+      </c>
+      <c r="E33">
+        <v>-0.05693372185625996</v>
+      </c>
+      <c r="F33">
+        <v>0.02460525380944664</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.06688540145542476</v>
+        <v>0.06576560024137004</v>
       </c>
       <c r="C34">
-        <v>-0.015937690639358</v>
+        <v>-0.01099912084914039</v>
       </c>
       <c r="D34">
-        <v>0.1015273045216908</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.112594726599659</v>
+      </c>
+      <c r="E34">
+        <v>-0.04313979692142309</v>
+      </c>
+      <c r="F34">
+        <v>0.02865050007660033</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.02640412401382841</v>
+        <v>0.02774242057403686</v>
       </c>
       <c r="C35">
-        <v>-0.004637375905901775</v>
+        <v>-0.004051536830548673</v>
       </c>
       <c r="D35">
-        <v>0.008960545104630189</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01180091763653125</v>
+      </c>
+      <c r="E35">
+        <v>-0.01779602037917942</v>
+      </c>
+      <c r="F35">
+        <v>-0.007774300475761127</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.02371104757266014</v>
+        <v>0.02817429157200762</v>
       </c>
       <c r="C36">
-        <v>-0.008622744477292749</v>
+        <v>-0.007473182615989719</v>
       </c>
       <c r="D36">
-        <v>0.03986299056961561</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.04120144760240443</v>
+      </c>
+      <c r="E36">
+        <v>-0.02001574637957682</v>
+      </c>
+      <c r="F36">
+        <v>0.01494691456722344</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.002459963285321229</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.0007868941001603294</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.003081158098026722</v>
+      </c>
+      <c r="E37">
+        <v>-0.0007004801595127873</v>
+      </c>
+      <c r="F37">
+        <v>-0.001577011896857105</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.1062523582508633</v>
+        <v>0.09628439458816651</v>
       </c>
       <c r="C39">
-        <v>-0.02331743010363259</v>
+        <v>-0.01663833315753983</v>
       </c>
       <c r="D39">
-        <v>0.1536976104539125</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1540474364095736</v>
+      </c>
+      <c r="E39">
+        <v>-0.07008605461990693</v>
+      </c>
+      <c r="F39">
+        <v>-0.006033819255555998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.04211650013851304</v>
+        <v>0.04690376963031703</v>
       </c>
       <c r="C40">
-        <v>-0.01116440854375448</v>
+        <v>-0.009756289945255068</v>
       </c>
       <c r="D40">
-        <v>0.027641862230754</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03385602937249584</v>
+      </c>
+      <c r="E40">
+        <v>-0.001302570824587808</v>
+      </c>
+      <c r="F40">
+        <v>-0.03165613846753999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.02503029263902417</v>
+        <v>0.02774975538252867</v>
       </c>
       <c r="C41">
-        <v>-0.008051362913956545</v>
+        <v>-0.007437493458146899</v>
       </c>
       <c r="D41">
-        <v>0.009454949892979072</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01093427915328272</v>
+      </c>
+      <c r="E41">
+        <v>-0.01171390534259483</v>
+      </c>
+      <c r="F41">
+        <v>-0.01397858420915991</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,122 +1531,176 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.04058538723352047</v>
+        <v>0.03931391044695583</v>
       </c>
       <c r="C43">
-        <v>-0.00885917064739767</v>
+        <v>-0.00800100565613327</v>
       </c>
       <c r="D43">
-        <v>0.02010081649258677</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.02146308925388423</v>
+      </c>
+      <c r="E43">
+        <v>-0.02691430861957178</v>
+      </c>
+      <c r="F43">
+        <v>-0.02754703038316961</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.06197105324964376</v>
+        <v>0.07294751557746697</v>
       </c>
       <c r="C44">
-        <v>-0.02294750119069698</v>
+        <v>-0.01918505041738098</v>
       </c>
       <c r="D44">
-        <v>0.09190723138854442</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09127760499610819</v>
+      </c>
+      <c r="E44">
+        <v>-0.07773396118810533</v>
+      </c>
+      <c r="F44">
+        <v>0.1891208983765349</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>5.068679225221835e-05</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>8.970670800890458e-07</v>
       </c>
       <c r="D45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>-5.583836553370912e-05</v>
+      </c>
+      <c r="E45">
+        <v>0.0001521582847444565</v>
+      </c>
+      <c r="F45">
+        <v>3.709329869415205e-05</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.0213770715866546</v>
+        <v>0.02464137691709482</v>
       </c>
       <c r="C46">
-        <v>-0.004908981582994272</v>
+        <v>-0.00386959914205783</v>
       </c>
       <c r="D46">
-        <v>0.0121077768676139</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01517044464712738</v>
+      </c>
+      <c r="E46">
+        <v>-0.03355602799009458</v>
+      </c>
+      <c r="F46">
+        <v>-0.02973808603681306</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.0539295520766641</v>
+        <v>0.05291608706276903</v>
       </c>
       <c r="C47">
-        <v>-0.006882336461694425</v>
+        <v>-0.005327898718167147</v>
       </c>
       <c r="D47">
-        <v>0.008566597012998719</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01284106799096306</v>
+      </c>
+      <c r="E47">
+        <v>-0.02411621780368554</v>
+      </c>
+      <c r="F47">
+        <v>-0.04710075847341275</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.04863275747643506</v>
+        <v>0.05177634126726578</v>
       </c>
       <c r="C48">
-        <v>-0.005938605509673177</v>
+        <v>-0.003174259682985106</v>
       </c>
       <c r="D48">
-        <v>0.05037802557239586</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.05344757911882651</v>
+      </c>
+      <c r="E48">
+        <v>0.001301442814345448</v>
+      </c>
+      <c r="F48">
+        <v>0.01113299480541447</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.1968912980575068</v>
+        <v>0.1988931360221023</v>
       </c>
       <c r="C49">
-        <v>-0.02710366137560504</v>
+        <v>-0.02369175871970674</v>
       </c>
       <c r="D49">
-        <v>-0.009589238828429965</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.003626401221044817</v>
+      </c>
+      <c r="E49">
+        <v>-0.02443605411186739</v>
+      </c>
+      <c r="F49">
+        <v>0.06477096383740098</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.04942785150553288</v>
+        <v>0.05205789388953144</v>
       </c>
       <c r="C50">
-        <v>-0.01423331552145594</v>
+        <v>-0.01274597882354256</v>
       </c>
       <c r="D50">
-        <v>0.02476288200542098</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02672142180219633</v>
+      </c>
+      <c r="E50">
+        <v>-0.03080617121401216</v>
+      </c>
+      <c r="F50">
+        <v>0.005858451048601365</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.1526746736802072</v>
+        <v>0.1459610424714397</v>
       </c>
       <c r="C52">
-        <v>-0.02393439436911157</v>
+        <v>-0.02079828209167387</v>
       </c>
       <c r="D52">
-        <v>0.0418500791243222</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04434604969837401</v>
+      </c>
+      <c r="E52">
+        <v>-0.03150930825445711</v>
+      </c>
+      <c r="F52">
+        <v>0.04419654385742286</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1750959819212649</v>
+        <v>0.1678918892719144</v>
       </c>
       <c r="C53">
-        <v>-0.02648377664590921</v>
+        <v>-0.02472554283994811</v>
       </c>
       <c r="D53">
-        <v>0.00552337166239045</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.008495436557693399</v>
+      </c>
+      <c r="E53">
+        <v>-0.04027716726822727</v>
+      </c>
+      <c r="F53">
+        <v>0.09610880363556533</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.01454603875596401</v>
+        <v>0.01788201154724489</v>
       </c>
       <c r="C54">
-        <v>-0.01194461745216521</v>
+        <v>-0.01105013316585973</v>
       </c>
       <c r="D54">
-        <v>0.02947374313147755</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.0288806338622626</v>
+      </c>
+      <c r="E54">
+        <v>-0.01948954728014981</v>
+      </c>
+      <c r="F54">
+        <v>-0.008727297002707367</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.1186654211230092</v>
+        <v>0.1165381062179412</v>
       </c>
       <c r="C55">
-        <v>-0.02275801150668714</v>
+        <v>-0.02146504255142043</v>
       </c>
       <c r="D55">
-        <v>0.005037065192368388</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.01189091272435042</v>
+      </c>
+      <c r="E55">
+        <v>-0.03899230277346007</v>
+      </c>
+      <c r="F55">
+        <v>0.03501701403654477</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1808934519243104</v>
+        <v>0.1750567302852901</v>
       </c>
       <c r="C56">
-        <v>-0.02452840305563909</v>
+        <v>-0.02309287344484733</v>
       </c>
       <c r="D56">
-        <v>-0.004150517393536287</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.0005973989286092749</v>
+      </c>
+      <c r="E56">
+        <v>-0.04029975665355674</v>
+      </c>
+      <c r="F56">
+        <v>0.05614488152368587</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.04574506049132977</v>
+        <v>0.04435457712167239</v>
       </c>
       <c r="C58">
-        <v>-0.004638909344346516</v>
+        <v>3.788626300552435e-06</v>
       </c>
       <c r="D58">
-        <v>0.06814406529743179</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.07784718496987288</v>
+      </c>
+      <c r="E58">
+        <v>-0.03599650358584261</v>
+      </c>
+      <c r="F58">
+        <v>-0.05165150261923298</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.1651169485519652</v>
+        <v>0.1714698857472438</v>
       </c>
       <c r="C59">
-        <v>-0.02306163533622995</v>
+        <v>-0.02829412531582563</v>
       </c>
       <c r="D59">
-        <v>-0.2187682873657371</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2147814843160687</v>
+      </c>
+      <c r="E59">
+        <v>0.05404799602876042</v>
+      </c>
+      <c r="F59">
+        <v>-0.06437155668055784</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2335949662877518</v>
+        <v>0.2264638664236925</v>
       </c>
       <c r="C60">
-        <v>-0.008140416074959562</v>
+        <v>-0.00336588819311665</v>
       </c>
       <c r="D60">
-        <v>0.03752820741283477</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.03844664511427934</v>
+      </c>
+      <c r="E60">
+        <v>0.006326556119683041</v>
+      </c>
+      <c r="F60">
+        <v>0.02580701420663834</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.0771522824308597</v>
+        <v>0.07252247639671322</v>
       </c>
       <c r="C61">
-        <v>-0.01688675898640641</v>
+        <v>-0.0112302783215712</v>
       </c>
       <c r="D61">
-        <v>0.1138675201248539</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1182566079337453</v>
+      </c>
+      <c r="E61">
+        <v>-0.04565480431524804</v>
+      </c>
+      <c r="F61">
+        <v>-0.01220829458285076</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1726886733891672</v>
+        <v>0.1681006865065841</v>
       </c>
       <c r="C62">
-        <v>-0.02788391214437522</v>
+        <v>-0.02547685610901087</v>
       </c>
       <c r="D62">
-        <v>0.002549784420620792</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.01000966331930615</v>
+      </c>
+      <c r="E62">
+        <v>-0.04230991151001756</v>
+      </c>
+      <c r="F62">
+        <v>0.03790270604241099</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.04264690168532185</v>
+        <v>0.04693104254299346</v>
       </c>
       <c r="C63">
-        <v>-0.005899522567891255</v>
+        <v>-0.0031720604672076</v>
       </c>
       <c r="D63">
-        <v>0.05539752119494142</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.06426470167317151</v>
+      </c>
+      <c r="E63">
+        <v>-0.02556862708696895</v>
+      </c>
+      <c r="F63">
+        <v>-0.01162682200280457</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.1141701703521046</v>
+        <v>0.1116013076068667</v>
       </c>
       <c r="C64">
-        <v>-0.01913047997103215</v>
+        <v>-0.01518481678979923</v>
       </c>
       <c r="D64">
-        <v>0.03826876193407288</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04457267101750111</v>
+      </c>
+      <c r="E64">
+        <v>-0.03123339787038711</v>
+      </c>
+      <c r="F64">
+        <v>0.02047970835257932</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.148012690701418</v>
+        <v>0.1552776167654311</v>
       </c>
       <c r="C65">
-        <v>-0.04052700418171179</v>
+        <v>-0.03950902944584538</v>
       </c>
       <c r="D65">
-        <v>-0.05007380885603052</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.03998082850358782</v>
+      </c>
+      <c r="E65">
+        <v>-0.01052254985575781</v>
+      </c>
+      <c r="F65">
+        <v>0.06089732927075273</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1281952968936725</v>
+        <v>0.1159155989494637</v>
       </c>
       <c r="C66">
-        <v>-0.02206285630398723</v>
+        <v>-0.01492216042991719</v>
       </c>
       <c r="D66">
-        <v>0.1378492462317036</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1433583715534394</v>
+      </c>
+      <c r="E66">
+        <v>-0.07326642536843006</v>
+      </c>
+      <c r="F66">
+        <v>-0.001855918141748704</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.06339907792314899</v>
+        <v>0.0559936920859431</v>
       </c>
       <c r="C67">
-        <v>-0.007485793201662625</v>
+        <v>-0.004727442064655512</v>
       </c>
       <c r="D67">
-        <v>0.05450113785472205</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05862965512526437</v>
+      </c>
+      <c r="E67">
+        <v>-0.02443819191422144</v>
+      </c>
+      <c r="F67">
+        <v>-0.07424811032824528</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.1135186960857766</v>
+        <v>0.1220171920333652</v>
       </c>
       <c r="C68">
-        <v>-0.03094814373878255</v>
+        <v>-0.03833249534266709</v>
       </c>
       <c r="D68">
-        <v>-0.2614847904733058</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2573568306651872</v>
+      </c>
+      <c r="E68">
+        <v>0.08621791312175123</v>
+      </c>
+      <c r="F68">
+        <v>0.01651779781562649</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.04004329065241018</v>
+        <v>0.03946734479388089</v>
       </c>
       <c r="C69">
-        <v>-0.003325088563249276</v>
+        <v>-0.002189608178116816</v>
       </c>
       <c r="D69">
-        <v>0.01020537338593928</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01106788592010454</v>
+      </c>
+      <c r="E69">
+        <v>-0.02973913824392822</v>
+      </c>
+      <c r="F69">
+        <v>-0.01827356324791564</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.06950314699571214</v>
+        <v>0.06963272406379488</v>
       </c>
       <c r="C70">
-        <v>0.02259996273072954</v>
+        <v>0.02510271790431401</v>
       </c>
       <c r="D70">
-        <v>0.02780200956836812</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.03155104181668249</v>
+      </c>
+      <c r="E70">
+        <v>0.03890966699202539</v>
+      </c>
+      <c r="F70">
+        <v>-0.3225593268726082</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.1326543023768998</v>
+        <v>0.1421562287607701</v>
       </c>
       <c r="C71">
-        <v>-0.03608998860477532</v>
+        <v>-0.04343026262555939</v>
       </c>
       <c r="D71">
-        <v>-0.2758519691962178</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2668681273120971</v>
+      </c>
+      <c r="E71">
+        <v>0.09600101458304744</v>
+      </c>
+      <c r="F71">
+        <v>0.02176449165970346</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1386089788332069</v>
+        <v>0.1445122171514568</v>
       </c>
       <c r="C72">
-        <v>-0.03190617633690621</v>
+        <v>-0.03131741506164248</v>
       </c>
       <c r="D72">
-        <v>0.000778046974588643</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.0006521943621107032</v>
+      </c>
+      <c r="E72">
+        <v>-0.04333200930608847</v>
+      </c>
+      <c r="F72">
+        <v>0.03356675921162559</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.1998449332221453</v>
+        <v>0.2029998785961045</v>
       </c>
       <c r="C73">
-        <v>-0.02155537226363907</v>
+        <v>-0.01694296939583702</v>
       </c>
       <c r="D73">
-        <v>0.01009988027688131</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01738081320979886</v>
+      </c>
+      <c r="E73">
+        <v>-0.06729165998817892</v>
+      </c>
+      <c r="F73">
+        <v>0.034832639236</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.08807345917496889</v>
+        <v>0.08851424181834906</v>
       </c>
       <c r="C74">
-        <v>-0.0156352381312864</v>
+        <v>-0.01425995536569285</v>
       </c>
       <c r="D74">
-        <v>0.01287006958307869</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01734192422072744</v>
+      </c>
+      <c r="E74">
+        <v>-0.04991079541932023</v>
+      </c>
+      <c r="F74">
+        <v>0.05241444175763288</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.131588582797933</v>
+        <v>0.1237477663314221</v>
       </c>
       <c r="C75">
-        <v>-0.03430287816662921</v>
+        <v>-0.03144581194378171</v>
       </c>
       <c r="D75">
-        <v>0.02581136133264044</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03213697507240357</v>
+      </c>
+      <c r="E75">
+        <v>-0.06194692045881215</v>
+      </c>
+      <c r="F75">
+        <v>0.01924385191251811</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.08126251609344855</v>
+        <v>0.09271399760160302</v>
       </c>
       <c r="C77">
-        <v>-0.01567193598247927</v>
+        <v>-0.01037461046776733</v>
       </c>
       <c r="D77">
-        <v>0.1176435780830058</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1210802201461664</v>
+      </c>
+      <c r="E77">
+        <v>-0.04830439965448294</v>
+      </c>
+      <c r="F77">
+        <v>0.04066330927930583</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.1011235657760514</v>
+        <v>0.1012435944977703</v>
       </c>
       <c r="C78">
-        <v>-0.04633425282754402</v>
+        <v>-0.04173803045910991</v>
       </c>
       <c r="D78">
-        <v>0.1081644505962119</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1079298039663272</v>
+      </c>
+      <c r="E78">
+        <v>-0.08022713454092456</v>
+      </c>
+      <c r="F78">
+        <v>0.0340246087744322</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1689334522842553</v>
+        <v>0.1641132711263588</v>
       </c>
       <c r="C79">
-        <v>-0.03099474797591278</v>
+        <v>-0.02838890886872014</v>
       </c>
       <c r="D79">
-        <v>0.01077585521484227</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01760341210146192</v>
+      </c>
+      <c r="E79">
+        <v>-0.05077768938586578</v>
+      </c>
+      <c r="F79">
+        <v>0.01381680902172783</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.08076917197544516</v>
+        <v>0.07933620328730204</v>
       </c>
       <c r="C80">
-        <v>-0.004064947319963813</v>
+        <v>-0.00120350684592414</v>
       </c>
       <c r="D80">
-        <v>0.05135086864984991</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05124117368971089</v>
+      </c>
+      <c r="E80">
+        <v>-0.03588079784071147</v>
+      </c>
+      <c r="F80">
+        <v>-0.05903890373168989</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1181518116844942</v>
+        <v>0.1125358047631214</v>
       </c>
       <c r="C81">
-        <v>-0.03575076597144861</v>
+        <v>-0.03423092315883939</v>
       </c>
       <c r="D81">
-        <v>0.006695044394737395</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01234253429580152</v>
+      </c>
+      <c r="E81">
+        <v>-0.05650323382525412</v>
+      </c>
+      <c r="F81">
+        <v>0.009835673888203441</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1636803411878425</v>
+        <v>0.1619649057584668</v>
       </c>
       <c r="C82">
-        <v>-0.03039749211988961</v>
+        <v>-0.02944288769713356</v>
       </c>
       <c r="D82">
-        <v>0.007896812437787762</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.005779094619529268</v>
+      </c>
+      <c r="E82">
+        <v>-0.03890075465069057</v>
+      </c>
+      <c r="F82">
+        <v>0.09877684026846807</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.05772041189597096</v>
+        <v>0.05288777099821538</v>
       </c>
       <c r="C83">
-        <v>-0.005879388104526093</v>
+        <v>-0.003565315950388884</v>
       </c>
       <c r="D83">
-        <v>0.03845131536363176</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.04000468771742594</v>
+      </c>
+      <c r="E83">
+        <v>0.00858933934850168</v>
+      </c>
+      <c r="F83">
+        <v>-0.03591709713940466</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.05899492618208753</v>
+        <v>0.05469882632936299</v>
       </c>
       <c r="C84">
-        <v>-0.0141271821715759</v>
+        <v>-0.01100034102468506</v>
       </c>
       <c r="D84">
-        <v>0.07699046266084075</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.07778981630019401</v>
+      </c>
+      <c r="E84">
+        <v>-0.01739509894585883</v>
+      </c>
+      <c r="F84">
+        <v>0.005307514961484327</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1397646486559452</v>
+        <v>0.1345865925234735</v>
       </c>
       <c r="C85">
-        <v>-0.03407560483997802</v>
+        <v>-0.03231381143507384</v>
       </c>
       <c r="D85">
-        <v>0.007598452440685206</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.01142832045883081</v>
+      </c>
+      <c r="E85">
+        <v>-0.04675479126470126</v>
+      </c>
+      <c r="F85">
+        <v>0.0592505115987087</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.08195123981303432</v>
+        <v>0.07823159377901932</v>
       </c>
       <c r="C86">
-        <v>0.005696809968208844</v>
+        <v>0.008762581589392379</v>
       </c>
       <c r="D86">
-        <v>0.02045182802824978</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.04793285999360573</v>
+      </c>
+      <c r="E86">
+        <v>-0.09006806736222894</v>
+      </c>
+      <c r="F86">
+        <v>-0.8316164128195821</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.09463616123222003</v>
+        <v>0.0917017587019472</v>
       </c>
       <c r="C87">
-        <v>-0.03036790034707493</v>
+        <v>-0.02207127137378696</v>
       </c>
       <c r="D87">
-        <v>0.07298499081703089</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.0910421757554265</v>
+      </c>
+      <c r="E87">
+        <v>0.0588903868796258</v>
+      </c>
+      <c r="F87">
+        <v>0.06742221704558715</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.06220750383153664</v>
+        <v>0.06106119150360492</v>
       </c>
       <c r="C88">
-        <v>-0.006680408937886961</v>
+        <v>-0.003691188967864519</v>
       </c>
       <c r="D88">
-        <v>0.05081672209055964</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.05100917996103076</v>
+      </c>
+      <c r="E88">
+        <v>-0.0312568424628251</v>
+      </c>
+      <c r="F88">
+        <v>0.001071823542342271</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.1241108055307416</v>
+        <v>0.1310508145281222</v>
       </c>
       <c r="C89">
-        <v>-0.01147846175526951</v>
+        <v>-0.01838255485164768</v>
       </c>
       <c r="D89">
-        <v>-0.2363629534562172</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2395705383270536</v>
+      </c>
+      <c r="E89">
+        <v>0.08707997826716297</v>
+      </c>
+      <c r="F89">
+        <v>0.007736529502614655</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1435333808310711</v>
+        <v>0.1572171189596236</v>
       </c>
       <c r="C90">
-        <v>-0.03222637644088264</v>
+        <v>-0.04032580953922452</v>
       </c>
       <c r="D90">
-        <v>-0.2626209103430043</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2649166255043987</v>
+      </c>
+      <c r="E90">
+        <v>0.1167386851276966</v>
+      </c>
+      <c r="F90">
+        <v>0.0075359062806878</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.1249359924114245</v>
+        <v>0.121287765417771</v>
       </c>
       <c r="C91">
-        <v>-0.02505351557628364</v>
+        <v>-0.02405792685760463</v>
       </c>
       <c r="D91">
-        <v>-0.01814565738156529</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01349642475461655</v>
+      </c>
+      <c r="E91">
+        <v>-0.05760827724144452</v>
+      </c>
+      <c r="F91">
+        <v>-0.01397819762443754</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1441036296356981</v>
+        <v>0.1503748521715805</v>
       </c>
       <c r="C92">
-        <v>-0.02323140337643703</v>
+        <v>-0.03123159351369624</v>
       </c>
       <c r="D92">
-        <v>-0.2893268054372892</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2898425235779911</v>
+      </c>
+      <c r="E92">
+        <v>0.1053720444431126</v>
+      </c>
+      <c r="F92">
+        <v>-0.00951286713176162</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1486711047848179</v>
+        <v>0.159833298326102</v>
       </c>
       <c r="C93">
-        <v>-0.02894023466511568</v>
+        <v>-0.03539306068354832</v>
       </c>
       <c r="D93">
-        <v>-0.2597946917173852</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2581911909085405</v>
+      </c>
+      <c r="E93">
+        <v>0.07098461237352201</v>
+      </c>
+      <c r="F93">
+        <v>0.01277268695960168</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1311290710308605</v>
+        <v>0.1234213698770723</v>
       </c>
       <c r="C94">
-        <v>-0.03057792816660924</v>
+        <v>-0.02704081686410585</v>
       </c>
       <c r="D94">
-        <v>0.04157458115097511</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04564142989685913</v>
+      </c>
+      <c r="E94">
+        <v>-0.06403581716322498</v>
+      </c>
+      <c r="F94">
+        <v>0.02326925291613645</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1269212265727427</v>
+        <v>0.12934370003722</v>
       </c>
       <c r="C95">
-        <v>-0.01260566374290219</v>
+        <v>-0.007165539673860247</v>
       </c>
       <c r="D95">
-        <v>0.08982399745353344</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1006010125913234</v>
+      </c>
+      <c r="E95">
+        <v>-0.063039052454485</v>
+      </c>
+      <c r="F95">
+        <v>-0.03196274754492904</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>0.1508113949237172</v>
+        <v>0.1378221542846256</v>
       </c>
       <c r="C96">
-        <v>0.9827184371677729</v>
+        <v>0.9834795413040751</v>
       </c>
       <c r="D96">
-        <v>-0.02707339287829236</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.05543948188417248</v>
+      </c>
+      <c r="E96">
+        <v>-0.05355878701730708</v>
+      </c>
+      <c r="F96">
+        <v>0.04286478831801573</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1891663367147745</v>
+        <v>0.1930375261447581</v>
       </c>
       <c r="C97">
-        <v>-0.001302875823035661</v>
+        <v>0.0001049871588032464</v>
       </c>
       <c r="D97">
-        <v>-0.02342408492676041</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.02722559987383538</v>
+      </c>
+      <c r="E97">
+        <v>-0.01924866641003248</v>
+      </c>
+      <c r="F97">
+        <v>-0.1841929335144485</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.1955296547571589</v>
+        <v>0.2013124239573242</v>
       </c>
       <c r="C98">
-        <v>-0.01561691752782842</v>
+        <v>-0.01082164629233061</v>
       </c>
       <c r="D98">
-        <v>0.006313088269823589</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.009663435281574234</v>
+      </c>
+      <c r="E98">
+        <v>0.08814829704141369</v>
+      </c>
+      <c r="F98">
+        <v>-0.07141393139778346</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.05743550610242691</v>
+        <v>0.0570887641681038</v>
       </c>
       <c r="C99">
-        <v>0.0005269424188388032</v>
+        <v>0.002635836436197173</v>
       </c>
       <c r="D99">
-        <v>0.03873986738767141</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.04370888469540374</v>
+      </c>
+      <c r="E99">
+        <v>-0.02630563433145089</v>
+      </c>
+      <c r="F99">
+        <v>-0.01277779434657604</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.1470595338802312</v>
+        <v>0.134412132587297</v>
       </c>
       <c r="C100">
-        <v>0.03501495334608716</v>
+        <v>0.04694750470216344</v>
       </c>
       <c r="D100">
-        <v>0.3975398536998293</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3617427922552686</v>
+      </c>
+      <c r="E100">
+        <v>0.8932761988902217</v>
+      </c>
+      <c r="F100">
+        <v>-0.01909623741516231</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.0250485096660305</v>
+        <v>0.02760749709896313</v>
       </c>
       <c r="C101">
-        <v>-0.009714543237135505</v>
+        <v>-0.009041826912336291</v>
       </c>
       <c r="D101">
-        <v>0.03079439553229319</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03048247235408877</v>
+      </c>
+      <c r="E101">
+        <v>-0.01622878804360345</v>
+      </c>
+      <c r="F101">
+        <v>-0.02896366083792036</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
